--- a/dist/umdm-emx1/umdm.xlsx
+++ b/dist/umdm-emx1/umdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="782">
   <si>
     <t>umdm</t>
   </si>
@@ -1718,6 +1718,9 @@
   </si>
   <si>
     <t>umdm_lookups_samplingReason</t>
+  </si>
+  <si>
+    <t>umdm_lookups_biospecimenType</t>
   </si>
   <si>
     <t>umdm_lookups_anatomicalSource</t>
@@ -2730,16 +2733,16 @@
         <v>259</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>260</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -2792,25 +2795,25 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="1" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>260</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -3532,40 +3535,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>259</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>260</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -7130,7 +7133,7 @@
         <v>24</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="D108" t="b">
         <v>0</v>
@@ -7152,6 +7155,9 @@
       </c>
       <c r="J108" t="b">
         <v>1</v>
+      </c>
+      <c r="K108" t="s">
+        <v>567</v>
       </c>
     </row>
     <row r="109" spans="1:12">
@@ -7186,7 +7192,7 @@
         <v>1</v>
       </c>
       <c r="K109" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="110" spans="1:12">
@@ -7221,7 +7227,7 @@
         <v>1</v>
       </c>
       <c r="K110" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
     </row>
     <row r="111" spans="1:12">
@@ -7728,7 +7734,7 @@
         <v>1</v>
       </c>
       <c r="K125" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="126" spans="1:12">
@@ -7795,7 +7801,7 @@
         <v>1</v>
       </c>
       <c r="K127" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="128" spans="1:12">
@@ -8436,7 +8442,7 @@
         <v>1</v>
       </c>
       <c r="K146" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="147" spans="1:12">
@@ -8471,7 +8477,7 @@
         <v>1</v>
       </c>
       <c r="K147" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="148" spans="1:12">
@@ -8506,7 +8512,7 @@
         <v>1</v>
       </c>
       <c r="K148" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="149" spans="1:12">
@@ -8733,7 +8739,7 @@
         <v>1</v>
       </c>
       <c r="K155" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="156" spans="1:12">
@@ -9342,7 +9348,7 @@
         <v>1</v>
       </c>
       <c r="K173" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="174" spans="1:12">
@@ -11446,22 +11452,22 @@
   <sheetData>
     <row r="1" spans="1:6">
       <c r="A1" s="1" t="s">
-        <v>776</v>
+        <v>777</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>777</v>
+        <v>778</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>778</v>
+        <v>779</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>779</v>
+        <v>780</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>780</v>
+        <v>781</v>
       </c>
     </row>
     <row r="2" spans="1:6">
@@ -11469,19 +11475,19 @@
         <v>522</v>
       </c>
       <c r="B2" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>522</v>
       </c>
       <c r="D2" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E2" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -11489,19 +11495,19 @@
         <v>485</v>
       </c>
       <c r="B3" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
       <c r="C3" s="2" t="s">
         <v>485</v>
       </c>
       <c r="D3" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E3" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -11509,39 +11515,39 @@
         <v>521</v>
       </c>
       <c r="B4" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>521</v>
       </c>
       <c r="D4" t="s">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="E4" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="B5" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="D5" t="s">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="E5" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -11549,19 +11555,19 @@
         <v>501</v>
       </c>
       <c r="B6" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
       <c r="C6" s="2" t="s">
         <v>501</v>
       </c>
       <c r="D6" t="s">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="E6" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -11569,19 +11575,19 @@
         <v>480</v>
       </c>
       <c r="B7" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>480</v>
       </c>
       <c r="D7" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E7" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -11589,19 +11595,19 @@
         <v>479</v>
       </c>
       <c r="B8" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>479</v>
       </c>
       <c r="D8" t="s">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="E8" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -11609,19 +11615,19 @@
         <v>428</v>
       </c>
       <c r="B9" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>428</v>
       </c>
       <c r="D9" t="s">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="E9" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -11629,39 +11635,39 @@
         <v>476</v>
       </c>
       <c r="B10" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>476</v>
       </c>
       <c r="D10" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E10" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B11" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="D11" t="s">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="E11" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F11" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -11669,19 +11675,19 @@
         <v>468</v>
       </c>
       <c r="B12" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>468</v>
       </c>
       <c r="D12" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E12" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F12" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -11689,39 +11695,39 @@
         <v>469</v>
       </c>
       <c r="B13" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>469</v>
       </c>
       <c r="D13" t="s">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="E13" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F13" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="B14" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="D14" t="s">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="E14" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -11729,19 +11735,19 @@
         <v>516</v>
       </c>
       <c r="B15" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>516</v>
       </c>
       <c r="D15" t="s">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="E15" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -11749,19 +11755,19 @@
         <v>512</v>
       </c>
       <c r="B16" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>512</v>
       </c>
       <c r="D16" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E16" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F16" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -11769,19 +11775,19 @@
         <v>514</v>
       </c>
       <c r="B17" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>514</v>
       </c>
       <c r="D17" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E17" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -11789,19 +11795,19 @@
         <v>502</v>
       </c>
       <c r="B18" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>502</v>
       </c>
       <c r="D18" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E18" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -11809,19 +11815,19 @@
         <v>519</v>
       </c>
       <c r="B19" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>519</v>
       </c>
       <c r="D19" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E19" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -11829,19 +11835,19 @@
         <v>431</v>
       </c>
       <c r="B20" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>431</v>
       </c>
       <c r="D20" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E20" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -11849,19 +11855,19 @@
         <v>515</v>
       </c>
       <c r="B21" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>515</v>
       </c>
       <c r="D21" t="s">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="E21" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F21" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -11869,19 +11875,19 @@
         <v>496</v>
       </c>
       <c r="B22" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>496</v>
       </c>
       <c r="D22" t="s">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="E22" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F22" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -11889,19 +11895,19 @@
         <v>429</v>
       </c>
       <c r="B23" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>429</v>
       </c>
       <c r="D23" t="s">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="E23" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -11909,19 +11915,19 @@
         <v>465</v>
       </c>
       <c r="B24" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>465</v>
       </c>
       <c r="D24" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E24" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F24" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -11929,19 +11935,19 @@
         <v>463</v>
       </c>
       <c r="B25" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
       <c r="C25" s="2" t="s">
         <v>463</v>
       </c>
       <c r="D25" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E25" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F25" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -11949,19 +11955,19 @@
         <v>471</v>
       </c>
       <c r="B26" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>471</v>
       </c>
       <c r="D26" t="s">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="E26" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F26" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -11969,19 +11975,19 @@
         <v>436</v>
       </c>
       <c r="B27" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>436</v>
       </c>
       <c r="D27" t="s">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="E27" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F27" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -11989,19 +11995,19 @@
         <v>495</v>
       </c>
       <c r="B28" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>495</v>
       </c>
       <c r="D28" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E28" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -12009,19 +12015,19 @@
         <v>550</v>
       </c>
       <c r="B29" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>550</v>
       </c>
       <c r="D29" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E29" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F29" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -12029,19 +12035,19 @@
         <v>538</v>
       </c>
       <c r="B30" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>538</v>
       </c>
       <c r="D30" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E30" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -12049,19 +12055,19 @@
         <v>422</v>
       </c>
       <c r="B31" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>422</v>
       </c>
       <c r="D31" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E31" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F31" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -12069,19 +12075,19 @@
         <v>498</v>
       </c>
       <c r="B32" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>498</v>
       </c>
       <c r="D32" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E32" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -12089,19 +12095,19 @@
         <v>427</v>
       </c>
       <c r="B33" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
       <c r="C33" s="2" t="s">
         <v>427</v>
       </c>
       <c r="D33" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E33" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -12109,19 +12115,19 @@
         <v>417</v>
       </c>
       <c r="B34" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>417</v>
       </c>
       <c r="D34" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E34" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -12129,19 +12135,19 @@
         <v>460</v>
       </c>
       <c r="B35" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
       <c r="C35" s="2" t="s">
         <v>460</v>
       </c>
       <c r="D35" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E35" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -12149,19 +12155,19 @@
         <v>458</v>
       </c>
       <c r="B36" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
       <c r="C36" s="2" t="s">
         <v>458</v>
       </c>
       <c r="D36" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E36" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -12169,19 +12175,19 @@
         <v>462</v>
       </c>
       <c r="B37" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
       <c r="C37" s="2" t="s">
         <v>462</v>
       </c>
       <c r="D37" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E37" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -12189,19 +12195,19 @@
         <v>507</v>
       </c>
       <c r="B38" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>507</v>
       </c>
       <c r="D38" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E38" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -12209,19 +12215,19 @@
         <v>504</v>
       </c>
       <c r="B39" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>504</v>
       </c>
       <c r="D39" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E39" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -12229,19 +12235,19 @@
         <v>517</v>
       </c>
       <c r="B40" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>517</v>
       </c>
       <c r="D40" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E40" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -12249,19 +12255,19 @@
         <v>481</v>
       </c>
       <c r="B41" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>481</v>
       </c>
       <c r="D41" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E41" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -12269,19 +12275,19 @@
         <v>426</v>
       </c>
       <c r="B42" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>426</v>
       </c>
       <c r="D42" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E42" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -12289,19 +12295,19 @@
         <v>438</v>
       </c>
       <c r="B43" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
       <c r="C43" s="2" t="s">
         <v>438</v>
       </c>
       <c r="D43" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E43" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -12309,19 +12315,19 @@
         <v>489</v>
       </c>
       <c r="B44" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>489</v>
       </c>
       <c r="D44" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E44" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -12329,19 +12335,19 @@
         <v>475</v>
       </c>
       <c r="B45" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>475</v>
       </c>
       <c r="D45" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E45" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -12349,19 +12355,19 @@
         <v>447</v>
       </c>
       <c r="B46" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>447</v>
       </c>
       <c r="D46" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E46" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -12369,19 +12375,19 @@
         <v>487</v>
       </c>
       <c r="B47" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>487</v>
       </c>
       <c r="D47" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E47" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -12389,19 +12395,19 @@
         <v>486</v>
       </c>
       <c r="B48" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>486</v>
       </c>
       <c r="D48" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E48" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -12409,19 +12415,19 @@
         <v>549</v>
       </c>
       <c r="B49" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>549</v>
       </c>
       <c r="D49" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E49" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F49" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -12429,19 +12435,19 @@
         <v>546</v>
       </c>
       <c r="B50" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>546</v>
       </c>
       <c r="D50" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E50" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -12449,39 +12455,39 @@
         <v>533</v>
       </c>
       <c r="B51" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>533</v>
       </c>
       <c r="D51" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E51" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B52" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="D52" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E52" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F52" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -12489,19 +12495,19 @@
         <v>478</v>
       </c>
       <c r="B53" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>478</v>
       </c>
       <c r="D53" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E53" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F53" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -12509,19 +12515,19 @@
         <v>503</v>
       </c>
       <c r="B54" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>503</v>
       </c>
       <c r="D54" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E54" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F54" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -12529,19 +12535,19 @@
         <v>488</v>
       </c>
       <c r="B55" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>488</v>
       </c>
       <c r="D55" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E55" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F55" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -12549,19 +12555,19 @@
         <v>497</v>
       </c>
       <c r="B56" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>497</v>
       </c>
       <c r="D56" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E56" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F56" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -12569,19 +12575,19 @@
         <v>461</v>
       </c>
       <c r="B57" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>461</v>
       </c>
       <c r="D57" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E57" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F57" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -12589,19 +12595,19 @@
         <v>432</v>
       </c>
       <c r="B58" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
       <c r="C58" s="2" t="s">
         <v>432</v>
       </c>
       <c r="D58" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E58" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F58" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -12609,19 +12615,19 @@
         <v>523</v>
       </c>
       <c r="B59" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
       <c r="C59" s="2" t="s">
         <v>523</v>
       </c>
       <c r="D59" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E59" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F59" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -12629,19 +12635,19 @@
         <v>527</v>
       </c>
       <c r="B60" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
       <c r="C60" s="2" t="s">
         <v>527</v>
       </c>
       <c r="D60" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E60" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F60" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -12649,19 +12655,19 @@
         <v>529</v>
       </c>
       <c r="B61" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
       <c r="C61" s="2" t="s">
         <v>529</v>
       </c>
       <c r="D61" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E61" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F61" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -12669,19 +12675,19 @@
         <v>526</v>
       </c>
       <c r="B62" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
       <c r="C62" s="2" t="s">
         <v>526</v>
       </c>
       <c r="D62" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E62" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F62" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -12689,19 +12695,19 @@
         <v>528</v>
       </c>
       <c r="B63" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
       <c r="C63" s="2" t="s">
         <v>528</v>
       </c>
       <c r="D63" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E63" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F63" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -12709,19 +12715,19 @@
         <v>510</v>
       </c>
       <c r="B64" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>510</v>
       </c>
       <c r="D64" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E64" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F64" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -12729,19 +12735,19 @@
         <v>444</v>
       </c>
       <c r="B65" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
       <c r="C65" s="2" t="s">
         <v>444</v>
       </c>
       <c r="D65" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E65" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F65" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -12749,19 +12755,19 @@
         <v>467</v>
       </c>
       <c r="B66" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
       <c r="C66" s="2" t="s">
         <v>467</v>
       </c>
       <c r="D66" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E66" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F66" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -12769,19 +12775,19 @@
         <v>456</v>
       </c>
       <c r="B67" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
       <c r="C67" s="2" t="s">
         <v>456</v>
       </c>
       <c r="D67" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E67" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F67" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -12789,19 +12795,19 @@
         <v>457</v>
       </c>
       <c r="B68" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
       <c r="C68" s="2" t="s">
         <v>457</v>
       </c>
       <c r="D68" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E68" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F68" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -12809,19 +12815,19 @@
         <v>433</v>
       </c>
       <c r="B69" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
       <c r="C69" s="2" t="s">
         <v>433</v>
       </c>
       <c r="D69" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E69" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F69" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -12829,19 +12835,19 @@
         <v>440</v>
       </c>
       <c r="B70" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
       <c r="C70" s="2" t="s">
         <v>440</v>
       </c>
       <c r="D70" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E70" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F70" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -12849,19 +12855,19 @@
         <v>455</v>
       </c>
       <c r="B71" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
       <c r="C71" s="2" t="s">
         <v>455</v>
       </c>
       <c r="D71" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E71" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F71" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -12869,19 +12875,19 @@
         <v>482</v>
       </c>
       <c r="B72" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
       <c r="C72" s="2" t="s">
         <v>482</v>
       </c>
       <c r="D72" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E72" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F72" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -12889,19 +12895,19 @@
         <v>421</v>
       </c>
       <c r="B73" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
       <c r="C73" s="2" t="s">
         <v>421</v>
       </c>
       <c r="D73" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E73" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F73" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -12909,19 +12915,19 @@
         <v>545</v>
       </c>
       <c r="B74" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
       <c r="C74" s="2" t="s">
         <v>545</v>
       </c>
       <c r="D74" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E74" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F74" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -12929,19 +12935,19 @@
         <v>484</v>
       </c>
       <c r="B75" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
       <c r="C75" s="2" t="s">
         <v>484</v>
       </c>
       <c r="D75" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E75" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F75" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -12949,19 +12955,19 @@
         <v>418</v>
       </c>
       <c r="B76" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
       <c r="C76" s="2" t="s">
         <v>418</v>
       </c>
       <c r="D76" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E76" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F76" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -12969,19 +12975,19 @@
         <v>500</v>
       </c>
       <c r="B77" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
       <c r="C77" s="2" t="s">
         <v>500</v>
       </c>
       <c r="D77" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E77" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F77" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -12989,19 +12995,19 @@
         <v>531</v>
       </c>
       <c r="B78" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
       <c r="C78" s="2" t="s">
         <v>531</v>
       </c>
       <c r="D78" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E78" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F78" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -13009,19 +13015,19 @@
         <v>539</v>
       </c>
       <c r="B79" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
       <c r="C79" s="2" t="s">
         <v>539</v>
       </c>
       <c r="D79" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E79" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F79" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -13029,39 +13035,39 @@
         <v>446</v>
       </c>
       <c r="B80" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
       <c r="C80" s="2" t="s">
         <v>446</v>
       </c>
       <c r="D80" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E80" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F80" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="81" spans="1:6">
       <c r="A81" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="B81" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="D81" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E81" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F81" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -13069,19 +13075,19 @@
         <v>434</v>
       </c>
       <c r="B82" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
       <c r="C82" s="2" t="s">
         <v>434</v>
       </c>
       <c r="D82" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E82" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F82" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -13089,19 +13095,19 @@
         <v>435</v>
       </c>
       <c r="B83" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
       <c r="C83" s="2" t="s">
         <v>435</v>
       </c>
       <c r="D83" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E83" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F83" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -13109,19 +13115,19 @@
         <v>483</v>
       </c>
       <c r="B84" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>483</v>
       </c>
       <c r="D84" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E84" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F84" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -13129,19 +13135,19 @@
         <v>551</v>
       </c>
       <c r="B85" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>551</v>
       </c>
       <c r="D85" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E85" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F85" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -13149,19 +13155,19 @@
         <v>472</v>
       </c>
       <c r="B86" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>472</v>
       </c>
       <c r="D86" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E86" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F86" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -13169,19 +13175,19 @@
         <v>532</v>
       </c>
       <c r="B87" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>532</v>
       </c>
       <c r="D87" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E87" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F87" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -13189,39 +13195,39 @@
         <v>448</v>
       </c>
       <c r="B88" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
       <c r="C88" s="2" t="s">
         <v>448</v>
       </c>
       <c r="D88" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E88" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F88" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="89" spans="1:6">
       <c r="A89" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B89" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="D89" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E89" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F89" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -13229,19 +13235,19 @@
         <v>508</v>
       </c>
       <c r="B90" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
       <c r="C90" s="2" t="s">
         <v>508</v>
       </c>
       <c r="D90" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E90" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F90" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -13249,19 +13255,19 @@
         <v>464</v>
       </c>
       <c r="B91" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
       <c r="C91" s="2" t="s">
         <v>464</v>
       </c>
       <c r="D91" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E91" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F91" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -13269,19 +13275,19 @@
         <v>548</v>
       </c>
       <c r="B92" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
       <c r="C92" s="2" t="s">
         <v>548</v>
       </c>
       <c r="D92" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E92" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F92" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -13289,19 +13295,19 @@
         <v>111</v>
       </c>
       <c r="B93" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
       <c r="C93" s="2" t="s">
         <v>111</v>
       </c>
       <c r="D93" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E93" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F93" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -13309,19 +13315,19 @@
         <v>525</v>
       </c>
       <c r="B94" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
       <c r="C94" s="2" t="s">
         <v>525</v>
       </c>
       <c r="D94" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E94" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F94" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -13329,19 +13335,19 @@
         <v>524</v>
       </c>
       <c r="B95" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
       <c r="C95" s="2" t="s">
         <v>524</v>
       </c>
       <c r="D95" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E95" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F95" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -13349,19 +13355,19 @@
         <v>543</v>
       </c>
       <c r="B96" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
       <c r="C96" s="2" t="s">
         <v>543</v>
       </c>
       <c r="D96" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E96" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F96" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -13369,19 +13375,19 @@
         <v>492</v>
       </c>
       <c r="B97" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
       <c r="C97" s="2" t="s">
         <v>492</v>
       </c>
       <c r="D97" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E97" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F97" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -13389,19 +13395,19 @@
         <v>536</v>
       </c>
       <c r="B98" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>536</v>
       </c>
       <c r="D98" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E98" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F98" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -13409,39 +13415,39 @@
         <v>443</v>
       </c>
       <c r="B99" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="C99" s="2" t="s">
         <v>443</v>
       </c>
       <c r="D99" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E99" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F99" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="100" spans="1:6">
       <c r="A100" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="B100" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="D100" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E100" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F100" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -13449,19 +13455,19 @@
         <v>474</v>
       </c>
       <c r="B101" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="C101" s="2" t="s">
         <v>474</v>
       </c>
       <c r="D101" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E101" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F101" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -13469,19 +13475,19 @@
         <v>509</v>
       </c>
       <c r="B102" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>509</v>
       </c>
       <c r="D102" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E102" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F102" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -13489,19 +13495,19 @@
         <v>423</v>
       </c>
       <c r="B103" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="C103" s="2" t="s">
         <v>423</v>
       </c>
       <c r="D103" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E103" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F103" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -13509,19 +13515,19 @@
         <v>530</v>
       </c>
       <c r="B104" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="C104" s="2" t="s">
         <v>530</v>
       </c>
       <c r="D104" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E104" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F104" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -13529,19 +13535,19 @@
         <v>459</v>
       </c>
       <c r="B105" t="s">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="C105" s="2" t="s">
         <v>459</v>
       </c>
       <c r="D105" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E105" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F105" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -13549,19 +13555,19 @@
         <v>511</v>
       </c>
       <c r="B106" t="s">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="C106" s="2" t="s">
         <v>511</v>
       </c>
       <c r="D106" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E106" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F106" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -13569,19 +13575,19 @@
         <v>494</v>
       </c>
       <c r="B107" t="s">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="C107" s="2" t="s">
         <v>494</v>
       </c>
       <c r="D107" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E107" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F107" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -13589,19 +13595,19 @@
         <v>425</v>
       </c>
       <c r="B108" t="s">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C108" s="2" t="s">
         <v>425</v>
       </c>
       <c r="D108" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E108" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F108" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -13609,19 +13615,19 @@
         <v>544</v>
       </c>
       <c r="B109" t="s">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="C109" s="2" t="s">
         <v>544</v>
       </c>
       <c r="D109" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E109" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F109" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -13629,19 +13635,19 @@
         <v>441</v>
       </c>
       <c r="B110" t="s">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="C110" s="2" t="s">
         <v>441</v>
       </c>
       <c r="D110" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E110" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F110" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -13649,19 +13655,19 @@
         <v>439</v>
       </c>
       <c r="B111" t="s">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="C111" s="2" t="s">
         <v>439</v>
       </c>
       <c r="D111" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E111" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F111" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -13669,19 +13675,19 @@
         <v>540</v>
       </c>
       <c r="B112" t="s">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="C112" s="2" t="s">
         <v>540</v>
       </c>
       <c r="D112" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E112" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F112" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -13689,19 +13695,19 @@
         <v>541</v>
       </c>
       <c r="B113" t="s">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="C113" s="2" t="s">
         <v>541</v>
       </c>
       <c r="D113" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E113" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F113" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -13709,19 +13715,19 @@
         <v>424</v>
       </c>
       <c r="B114" t="s">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="C114" s="2" t="s">
         <v>424</v>
       </c>
       <c r="D114" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E114" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F114" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -13729,19 +13735,19 @@
         <v>537</v>
       </c>
       <c r="B115" t="s">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="C115" s="2" t="s">
         <v>537</v>
       </c>
       <c r="D115" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E115" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F115" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -13749,19 +13755,19 @@
         <v>473</v>
       </c>
       <c r="B116" t="s">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="C116" s="2" t="s">
         <v>473</v>
       </c>
       <c r="D116" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E116" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F116" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -13769,19 +13775,19 @@
         <v>419</v>
       </c>
       <c r="B117" t="s">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="C117" s="2" t="s">
         <v>419</v>
       </c>
       <c r="D117" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E117" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F117" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -13789,19 +13795,19 @@
         <v>437</v>
       </c>
       <c r="B118" t="s">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="C118" s="2" t="s">
         <v>437</v>
       </c>
       <c r="D118" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E118" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F118" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -13809,19 +13815,19 @@
         <v>499</v>
       </c>
       <c r="B119" t="s">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="C119" s="2" t="s">
         <v>499</v>
       </c>
       <c r="D119" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E119" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F119" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -13829,19 +13835,19 @@
         <v>452</v>
       </c>
       <c r="B120" t="s">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>452</v>
       </c>
       <c r="D120" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E120" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F120" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -13849,19 +13855,19 @@
         <v>493</v>
       </c>
       <c r="B121" t="s">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>493</v>
       </c>
       <c r="D121" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E121" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F121" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -13869,19 +13875,19 @@
         <v>449</v>
       </c>
       <c r="B122" t="s">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>449</v>
       </c>
       <c r="D122" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E122" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F122" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -13889,19 +13895,19 @@
         <v>420</v>
       </c>
       <c r="B123" t="s">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>420</v>
       </c>
       <c r="D123" t="s">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="E123" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F123" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -13909,19 +13915,19 @@
         <v>542</v>
       </c>
       <c r="B124" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="C124" s="2" t="s">
         <v>542</v>
       </c>
       <c r="D124" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E124" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F124" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -13929,39 +13935,39 @@
         <v>513</v>
       </c>
       <c r="B125" t="s">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>513</v>
       </c>
       <c r="D125" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E125" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F125" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="126" spans="1:6">
       <c r="A126" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B126" t="s">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="D126" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E126" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F126" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -13969,19 +13975,19 @@
         <v>454</v>
       </c>
       <c r="B127" t="s">
-        <v>725</v>
+        <v>726</v>
       </c>
       <c r="C127" s="2" t="s">
         <v>454</v>
       </c>
       <c r="D127" t="s">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="E127" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F127" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -13989,19 +13995,19 @@
         <v>451</v>
       </c>
       <c r="B128" t="s">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="C128" s="2" t="s">
         <v>451</v>
       </c>
       <c r="D128" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E128" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F128" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -14009,19 +14015,19 @@
         <v>535</v>
       </c>
       <c r="B129" t="s">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="C129" s="2" t="s">
         <v>535</v>
       </c>
       <c r="D129" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E129" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F129" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -14029,19 +14035,19 @@
         <v>453</v>
       </c>
       <c r="B130" t="s">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="C130" s="2" t="s">
         <v>453</v>
       </c>
       <c r="D130" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E130" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F130" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -14049,19 +14055,19 @@
         <v>534</v>
       </c>
       <c r="B131" t="s">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="C131" s="2" t="s">
         <v>534</v>
       </c>
       <c r="D131" t="s">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="E131" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F131" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -14069,19 +14075,19 @@
         <v>430</v>
       </c>
       <c r="B132" t="s">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>430</v>
       </c>
       <c r="D132" t="s">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="E132" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F132" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -14089,39 +14095,39 @@
         <v>442</v>
       </c>
       <c r="B133" t="s">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="C133" s="2" t="s">
         <v>442</v>
       </c>
       <c r="D133" t="s">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="E133" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F133" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="B134" t="s">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="D134" t="s">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="E134" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F134" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -14129,19 +14135,19 @@
         <v>466</v>
       </c>
       <c r="B135" t="s">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="C135" s="2" t="s">
         <v>466</v>
       </c>
       <c r="D135" t="s">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="E135" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F135" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -14149,19 +14155,19 @@
         <v>470</v>
       </c>
       <c r="B136" t="s">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="C136" s="2" t="s">
         <v>470</v>
       </c>
       <c r="D136" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E136" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F136" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -14169,19 +14175,19 @@
         <v>547</v>
       </c>
       <c r="B137" t="s">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="C137" s="2" t="s">
         <v>547</v>
       </c>
       <c r="D137" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E137" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F137" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -14189,19 +14195,19 @@
         <v>445</v>
       </c>
       <c r="B138" t="s">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="C138" s="2" t="s">
         <v>445</v>
       </c>
       <c r="D138" t="s">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="E138" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F138" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -14209,19 +14215,19 @@
         <v>490</v>
       </c>
       <c r="B139" t="s">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>490</v>
       </c>
       <c r="D139" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E139" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F139" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -14229,19 +14235,19 @@
         <v>491</v>
       </c>
       <c r="B140" t="s">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>491</v>
       </c>
       <c r="D140" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E140" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F140" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -14249,19 +14255,19 @@
         <v>505</v>
       </c>
       <c r="B141" t="s">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="C141" s="2" t="s">
         <v>505</v>
       </c>
       <c r="D141" t="s">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="E141" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F141" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -14269,19 +14275,19 @@
         <v>477</v>
       </c>
       <c r="B142" t="s">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="C142" s="2" t="s">
         <v>477</v>
       </c>
       <c r="D142" t="s">
-        <v>770</v>
+        <v>771</v>
       </c>
       <c r="E142" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F142" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -14289,19 +14295,19 @@
         <v>506</v>
       </c>
       <c r="B143" t="s">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="C143" s="2" t="s">
         <v>506</v>
       </c>
       <c r="D143" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E143" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F143" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -14309,19 +14315,19 @@
         <v>518</v>
       </c>
       <c r="B144" t="s">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="C144" s="2" t="s">
         <v>518</v>
       </c>
       <c r="D144" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E144" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F144" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -14329,19 +14335,19 @@
         <v>520</v>
       </c>
       <c r="B145" t="s">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="C145" s="2" t="s">
         <v>520</v>
       </c>
       <c r="D145" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="E145" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F145" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -14349,19 +14355,19 @@
         <v>450</v>
       </c>
       <c r="B146" t="s">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="C146" s="2" t="s">
         <v>450</v>
       </c>
       <c r="D146" t="s">
-        <v>772</v>
+        <v>773</v>
       </c>
       <c r="E146" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F146" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -14369,39 +14375,39 @@
         <v>6</v>
       </c>
       <c r="B147" t="s">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="C147" s="2" t="s">
         <v>6</v>
       </c>
       <c r="D147" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E147" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F147" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
     <row r="148" spans="1:6">
       <c r="A148" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="B148" t="s">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="C148" s="2" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
       <c r="D148" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="E148" t="s">
-        <v>774</v>
+        <v>775</v>
       </c>
       <c r="F148" s="2" t="s">
-        <v>775</v>
+        <v>776</v>
       </c>
     </row>
   </sheetData>

--- a/dist/umdm-emx1/umdm.xlsx
+++ b/dist/umdm-emx1/umdm.xlsx
@@ -31,7 +31,7 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Molgenis Data Model (UMDM) for NGS data in research and healthcare (v1.1.0, 2022-02-07)</t>
+    <t>The Unified Molgenis Data Model (UMDM) (v1.1.1, 2022-02-17)</t>
   </si>
   <si>
     <t>Lookup tables for the Unified Molgenis Data Model (UMDM) (v1.1.0, 2022-02-07)</t>

--- a/dist/umdm-emx1/umdm.xlsx
+++ b/dist/umdm-emx1/umdm.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2362" uniqueCount="782">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2361" uniqueCount="782">
   <si>
     <t>umdm</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Molgenis Data Model (UMDM) (v1.1.1, 2022-02-17)</t>
+    <t>The Unified Molgenis Data Model (UMDM) (v1.1.2, 2022-03-02)</t>
   </si>
   <si>
     <t>Lookup tables for the Unified Molgenis Data Model (UMDM) (v1.1.0, 2022-02-07)</t>
@@ -856,22 +856,22 @@
     <t>xref</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>decimal</t>
+  </si>
+  <si>
+    <t>compound</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>bool</t>
+  </si>
+  <si>
     <t>mref</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>decimal</t>
-  </si>
-  <si>
-    <t>compound</t>
-  </si>
-  <si>
-    <t>email</t>
-  </si>
-  <si>
-    <t>bool</t>
   </si>
   <si>
     <t>text</t>
@@ -3713,7 +3713,7 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -3735,9 +3735,6 @@
       </c>
       <c r="J6" t="b">
         <v>1</v>
-      </c>
-      <c r="K6" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -3815,7 +3812,7 @@
         <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -3879,7 +3876,7 @@
         <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3911,7 +3908,7 @@
         <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -4153,7 +4150,7 @@
         <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4258,7 +4255,7 @@
         <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4357,7 +4354,7 @@
         <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4389,7 +4386,7 @@
         <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4421,7 +4418,7 @@
         <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4453,7 +4450,7 @@
         <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4488,7 +4485,7 @@
         <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4523,7 +4520,7 @@
         <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4558,7 +4555,7 @@
         <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4861,7 +4858,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4960,7 +4957,7 @@
         <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -5088,7 +5085,7 @@
         <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -5123,7 +5120,7 @@
         <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -5155,7 +5152,7 @@
         <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -5184,7 +5181,7 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -5219,7 +5216,7 @@
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -5589,7 +5586,7 @@
         <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -5621,7 +5618,7 @@
         <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -5656,7 +5653,7 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -5723,7 +5720,7 @@
         <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -5755,7 +5752,7 @@
         <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -5784,7 +5781,7 @@
         <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5816,7 +5813,7 @@
         <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -5851,7 +5848,7 @@
         <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -6125,7 +6122,7 @@
         <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -6189,7 +6186,7 @@
         <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -6221,7 +6218,7 @@
         <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -6253,7 +6250,7 @@
         <v>206</v>
       </c>
       <c r="C82" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -6288,7 +6285,7 @@
         <v>207</v>
       </c>
       <c r="C83" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -6323,7 +6320,7 @@
         <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -6358,7 +6355,7 @@
         <v>209</v>
       </c>
       <c r="C85" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -6393,7 +6390,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -6527,7 +6524,7 @@
         <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -6562,7 +6559,7 @@
         <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -6597,7 +6594,7 @@
         <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -6935,7 +6932,7 @@
         <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -7034,7 +7031,7 @@
         <v>220</v>
       </c>
       <c r="C105" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -7238,7 +7235,7 @@
         <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -7302,7 +7299,7 @@
         <v>173</v>
       </c>
       <c r="C113" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -7337,7 +7334,7 @@
         <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -7678,7 +7675,7 @@
         <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -7745,7 +7742,7 @@
         <v>227</v>
       </c>
       <c r="C126" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -7812,7 +7809,7 @@
         <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -7844,7 +7841,7 @@
         <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -7876,7 +7873,7 @@
         <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -7972,7 +7969,7 @@
         <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -8007,7 +8004,7 @@
         <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -8523,7 +8520,7 @@
         <v>241</v>
       </c>
       <c r="C149" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -8555,7 +8552,7 @@
         <v>242</v>
       </c>
       <c r="C150" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -8587,7 +8584,7 @@
         <v>243</v>
       </c>
       <c r="C151" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -8619,7 +8616,7 @@
         <v>244</v>
       </c>
       <c r="C152" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -8651,7 +8648,7 @@
         <v>245</v>
       </c>
       <c r="C153" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -8750,7 +8747,7 @@
         <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -8785,7 +8782,7 @@
         <v>174</v>
       </c>
       <c r="C157" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -9024,7 +9021,7 @@
         <v>249</v>
       </c>
       <c r="C164" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -9094,7 +9091,7 @@
         <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -9129,7 +9126,7 @@
         <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -9260,7 +9257,7 @@
         <v>253</v>
       </c>
       <c r="C171" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -9423,7 +9420,7 @@
         <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
@@ -9458,7 +9455,7 @@
         <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -9857,7 +9854,7 @@
         <v>165</v>
       </c>
       <c r="C189" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -9889,7 +9886,7 @@
         <v>261</v>
       </c>
       <c r="C190" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -9921,7 +9918,7 @@
         <v>174</v>
       </c>
       <c r="C191" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -10640,7 +10637,7 @@
         <v>273</v>
       </c>
       <c r="C213" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>

--- a/dist/umdm-emx1/umdm.xlsx
+++ b/dist/umdm-emx1/umdm.xlsx
@@ -31,7 +31,7 @@
     <t>Lookups</t>
   </si>
   <si>
-    <t>The Unified Molgenis Data Model (UMDM) (v1.1.2, 2022-03-02)</t>
+    <t>The Unified Molgenis Data Model (UMDM) (v1.1.3, 2022-03-02)</t>
   </si>
   <si>
     <t>Lookup tables for the Unified Molgenis Data Model (UMDM) (v1.1.0, 2022-02-07)</t>
@@ -856,6 +856,9 @@
     <t>xref</t>
   </si>
   <si>
+    <t>text</t>
+  </si>
+  <si>
     <t>int</t>
   </si>
   <si>
@@ -872,9 +875,6 @@
   </si>
   <si>
     <t>mref</t>
-  </si>
-  <si>
-    <t>text</t>
   </si>
   <si>
     <t>datetime</t>
@@ -3713,7 +3713,7 @@
         <v>154</v>
       </c>
       <c r="C6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="D6" t="b">
         <v>0</v>
@@ -3812,7 +3812,7 @@
         <v>156</v>
       </c>
       <c r="C9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D9" t="b">
         <v>0</v>
@@ -3876,7 +3876,7 @@
         <v>158</v>
       </c>
       <c r="C11" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D11" t="b">
         <v>0</v>
@@ -3908,7 +3908,7 @@
         <v>159</v>
       </c>
       <c r="C12" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D12" t="b">
         <v>0</v>
@@ -4150,7 +4150,7 @@
         <v>162</v>
       </c>
       <c r="C19" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D19" t="b">
         <v>0</v>
@@ -4255,7 +4255,7 @@
         <v>165</v>
       </c>
       <c r="C22" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D22" t="b">
         <v>0</v>
@@ -4354,7 +4354,7 @@
         <v>168</v>
       </c>
       <c r="C25" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D25" t="b">
         <v>0</v>
@@ -4386,7 +4386,7 @@
         <v>169</v>
       </c>
       <c r="C26" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D26" t="b">
         <v>0</v>
@@ -4418,7 +4418,7 @@
         <v>170</v>
       </c>
       <c r="C27" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D27" t="b">
         <v>0</v>
@@ -4450,7 +4450,7 @@
         <v>171</v>
       </c>
       <c r="C28" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D28" t="b">
         <v>0</v>
@@ -4485,7 +4485,7 @@
         <v>172</v>
       </c>
       <c r="C29" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D29" t="b">
         <v>0</v>
@@ -4520,7 +4520,7 @@
         <v>173</v>
       </c>
       <c r="C30" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D30" t="b">
         <v>0</v>
@@ -4555,7 +4555,7 @@
         <v>174</v>
       </c>
       <c r="C31" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D31" t="b">
         <v>0</v>
@@ -4587,7 +4587,7 @@
         <v>175</v>
       </c>
       <c r="C32" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D32" t="b">
         <v>0</v>
@@ -4858,7 +4858,7 @@
         <v>35</v>
       </c>
       <c r="C40" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D40" t="b">
         <v>0</v>
@@ -4957,7 +4957,7 @@
         <v>165</v>
       </c>
       <c r="C43" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D43" t="b">
         <v>0</v>
@@ -4989,7 +4989,7 @@
         <v>184</v>
       </c>
       <c r="C44" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D44" t="b">
         <v>0</v>
@@ -5085,7 +5085,7 @@
         <v>187</v>
       </c>
       <c r="C47" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D47" t="b">
         <v>0</v>
@@ -5120,7 +5120,7 @@
         <v>188</v>
       </c>
       <c r="C48" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D48" t="b">
         <v>0</v>
@@ -5152,7 +5152,7 @@
         <v>189</v>
       </c>
       <c r="C49" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D49" t="b">
         <v>0</v>
@@ -5181,7 +5181,7 @@
         <v>173</v>
       </c>
       <c r="C50" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D50" t="b">
         <v>0</v>
@@ -5216,7 +5216,7 @@
         <v>174</v>
       </c>
       <c r="C51" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D51" t="b">
         <v>0</v>
@@ -5248,7 +5248,7 @@
         <v>175</v>
       </c>
       <c r="C52" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D52" t="b">
         <v>0</v>
@@ -5586,7 +5586,7 @@
         <v>195</v>
       </c>
       <c r="C62" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D62" t="b">
         <v>0</v>
@@ -5618,7 +5618,7 @@
         <v>196</v>
       </c>
       <c r="C63" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D63" t="b">
         <v>0</v>
@@ -5653,7 +5653,7 @@
         <v>26</v>
       </c>
       <c r="C64" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D64" t="b">
         <v>0</v>
@@ -5688,7 +5688,7 @@
         <v>197</v>
       </c>
       <c r="C65" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D65" t="b">
         <v>0</v>
@@ -5720,7 +5720,7 @@
         <v>198</v>
       </c>
       <c r="C66" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D66" t="b">
         <v>0</v>
@@ -5752,7 +5752,7 @@
         <v>199</v>
       </c>
       <c r="C67" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D67" t="b">
         <v>0</v>
@@ -5781,7 +5781,7 @@
         <v>200</v>
       </c>
       <c r="C68" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D68" t="b">
         <v>0</v>
@@ -5813,7 +5813,7 @@
         <v>173</v>
       </c>
       <c r="C69" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D69" t="b">
         <v>0</v>
@@ -5848,7 +5848,7 @@
         <v>174</v>
       </c>
       <c r="C70" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D70" t="b">
         <v>0</v>
@@ -5880,7 +5880,7 @@
         <v>175</v>
       </c>
       <c r="C71" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D71" t="b">
         <v>0</v>
@@ -6122,7 +6122,7 @@
         <v>202</v>
       </c>
       <c r="C78" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D78" t="b">
         <v>0</v>
@@ -6186,7 +6186,7 @@
         <v>204</v>
       </c>
       <c r="C80" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D80" t="b">
         <v>0</v>
@@ -6218,7 +6218,7 @@
         <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D81" t="b">
         <v>0</v>
@@ -6250,7 +6250,7 @@
         <v>206</v>
       </c>
       <c r="C82" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D82" t="b">
         <v>0</v>
@@ -6285,7 +6285,7 @@
         <v>207</v>
       </c>
       <c r="C83" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D83" t="b">
         <v>0</v>
@@ -6320,7 +6320,7 @@
         <v>208</v>
       </c>
       <c r="C84" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D84" t="b">
         <v>0</v>
@@ -6355,7 +6355,7 @@
         <v>209</v>
       </c>
       <c r="C85" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D85" t="b">
         <v>0</v>
@@ -6390,7 +6390,7 @@
         <v>36</v>
       </c>
       <c r="C86" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -6425,7 +6425,7 @@
         <v>210</v>
       </c>
       <c r="C87" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -6524,7 +6524,7 @@
         <v>213</v>
       </c>
       <c r="C90" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -6559,7 +6559,7 @@
         <v>173</v>
       </c>
       <c r="C91" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -6594,7 +6594,7 @@
         <v>174</v>
       </c>
       <c r="C92" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -6626,7 +6626,7 @@
         <v>175</v>
       </c>
       <c r="C93" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -6932,7 +6932,7 @@
         <v>217</v>
       </c>
       <c r="C102" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -7031,7 +7031,7 @@
         <v>220</v>
       </c>
       <c r="C105" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -7066,7 +7066,7 @@
         <v>221</v>
       </c>
       <c r="C106" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
@@ -7098,7 +7098,7 @@
         <v>222</v>
       </c>
       <c r="C107" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -7235,7 +7235,7 @@
         <v>223</v>
       </c>
       <c r="C111" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D111" t="b">
         <v>0</v>
@@ -7299,7 +7299,7 @@
         <v>173</v>
       </c>
       <c r="C113" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D113" t="b">
         <v>0</v>
@@ -7334,7 +7334,7 @@
         <v>174</v>
       </c>
       <c r="C114" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D114" t="b">
         <v>0</v>
@@ -7366,7 +7366,7 @@
         <v>175</v>
       </c>
       <c r="C115" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D115" t="b">
         <v>0</v>
@@ -7675,7 +7675,7 @@
         <v>225</v>
       </c>
       <c r="C124" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D124" t="b">
         <v>0</v>
@@ -7742,7 +7742,7 @@
         <v>227</v>
       </c>
       <c r="C126" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D126" t="b">
         <v>0</v>
@@ -7809,7 +7809,7 @@
         <v>229</v>
       </c>
       <c r="C128" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="D128" t="b">
         <v>0</v>
@@ -7841,7 +7841,7 @@
         <v>230</v>
       </c>
       <c r="C129" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D129" t="b">
         <v>0</v>
@@ -7873,7 +7873,7 @@
         <v>231</v>
       </c>
       <c r="C130" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D130" t="b">
         <v>0</v>
@@ -7969,7 +7969,7 @@
         <v>173</v>
       </c>
       <c r="C133" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D133" t="b">
         <v>0</v>
@@ -8004,7 +8004,7 @@
         <v>174</v>
       </c>
       <c r="C134" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D134" t="b">
         <v>0</v>
@@ -8036,7 +8036,7 @@
         <v>175</v>
       </c>
       <c r="C135" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D135" t="b">
         <v>0</v>
@@ -8520,7 +8520,7 @@
         <v>241</v>
       </c>
       <c r="C149" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D149" t="b">
         <v>0</v>
@@ -8552,7 +8552,7 @@
         <v>242</v>
       </c>
       <c r="C150" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D150" t="b">
         <v>0</v>
@@ -8584,7 +8584,7 @@
         <v>243</v>
       </c>
       <c r="C151" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D151" t="b">
         <v>0</v>
@@ -8616,7 +8616,7 @@
         <v>244</v>
       </c>
       <c r="C152" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D152" t="b">
         <v>0</v>
@@ -8648,7 +8648,7 @@
         <v>245</v>
       </c>
       <c r="C153" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D153" t="b">
         <v>0</v>
@@ -8680,7 +8680,7 @@
         <v>246</v>
       </c>
       <c r="C154" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D154" t="b">
         <v>0</v>
@@ -8747,7 +8747,7 @@
         <v>173</v>
       </c>
       <c r="C156" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D156" t="b">
         <v>0</v>
@@ -8782,7 +8782,7 @@
         <v>174</v>
       </c>
       <c r="C157" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D157" t="b">
         <v>0</v>
@@ -8814,7 +8814,7 @@
         <v>175</v>
       </c>
       <c r="C158" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D158" t="b">
         <v>0</v>
@@ -9021,7 +9021,7 @@
         <v>249</v>
       </c>
       <c r="C164" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D164" t="b">
         <v>0</v>
@@ -9091,7 +9091,7 @@
         <v>171</v>
       </c>
       <c r="C166" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D166" t="b">
         <v>0</v>
@@ -9126,7 +9126,7 @@
         <v>172</v>
       </c>
       <c r="C167" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D167" t="b">
         <v>0</v>
@@ -9257,7 +9257,7 @@
         <v>253</v>
       </c>
       <c r="C171" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D171" t="b">
         <v>0</v>
@@ -9420,7 +9420,7 @@
         <v>173</v>
       </c>
       <c r="C176" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="D176" t="b">
         <v>0</v>
@@ -9455,7 +9455,7 @@
         <v>174</v>
       </c>
       <c r="C177" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D177" t="b">
         <v>0</v>
@@ -9487,7 +9487,7 @@
         <v>175</v>
       </c>
       <c r="C178" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D178" t="b">
         <v>0</v>
@@ -9758,7 +9758,7 @@
         <v>260</v>
       </c>
       <c r="C186" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D186" t="b">
         <v>0</v>
@@ -9854,7 +9854,7 @@
         <v>165</v>
       </c>
       <c r="C189" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D189" t="b">
         <v>0</v>
@@ -9886,7 +9886,7 @@
         <v>261</v>
       </c>
       <c r="C190" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D190" t="b">
         <v>0</v>
@@ -9918,7 +9918,7 @@
         <v>174</v>
       </c>
       <c r="C191" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D191" t="b">
         <v>0</v>
@@ -9950,7 +9950,7 @@
         <v>175</v>
       </c>
       <c r="C192" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D192" t="b">
         <v>0</v>
@@ -10189,7 +10189,7 @@
         <v>260</v>
       </c>
       <c r="C199" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D199" t="b">
         <v>0</v>
@@ -10285,7 +10285,7 @@
         <v>266</v>
       </c>
       <c r="C202" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D202" t="b">
         <v>0</v>
@@ -10349,7 +10349,7 @@
         <v>260</v>
       </c>
       <c r="C204" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D204" t="b">
         <v>0</v>
@@ -10541,7 +10541,7 @@
         <v>260</v>
       </c>
       <c r="C210" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D210" t="b">
         <v>0</v>
@@ -10637,7 +10637,7 @@
         <v>273</v>
       </c>
       <c r="C213" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="D213" t="b">
         <v>0</v>
@@ -10701,7 +10701,7 @@
         <v>275</v>
       </c>
       <c r="C215" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D215" t="b">
         <v>0</v>
@@ -10797,7 +10797,7 @@
         <v>260</v>
       </c>
       <c r="C218" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D218" t="b">
         <v>0</v>
@@ -10925,7 +10925,7 @@
         <v>260</v>
       </c>
       <c r="C222" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D222" t="b">
         <v>0</v>
@@ -11085,7 +11085,7 @@
         <v>260</v>
       </c>
       <c r="C227" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="D227" t="b">
         <v>0</v>
